--- a/biology/Botanique/Alexandre_Bataline/Alexandre_Bataline.xlsx
+++ b/biology/Botanique/Alexandre_Bataline/Alexandre_Bataline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Fiodorovitch Bataline (en russe : Алекса́ндр Фёдорович Бата́лин ; en allemand : Alexander Theodorowitsch Batalin), né le 13 (1er) août 1847 à Saint-Pétersbourg et mort le 13 (1er) octobre 1896 à Saint-Pétersbourg, est un botaniste russe qui fut directeur du jardin botanique impérial de Saint-Pétersbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre Bataline est le fils de Fiodor Bataline (1823-1895), enseignant et rédacteur de La Gazette de l'agriculture. Il passe sa prime jeunesse à Moscou jusqu'en 1860, date à laquelle il entre au lycée à Saint-Pétersbourg, puis au département de sciences naturelles de l'université de Saint-Pétersbourg qu'il termine en 1869. Il y a suivi les cours des professeurs Andreï Famintsyne (1835-1918) et Andreï Beketov (1825-1902) et fait partie de la Société des naturalistes de Saint-Pétersbourg.
 Il donne des cours de botanique à l'institut des mines de 1870 à 1879. Il présente sa thèse de troisième cycle en 1872 sur l'influence de la lumière dans la formation des plantes. Il collabore avec son père à l'édition du Répertoire des agriculteurs de 1875 à 1878, puis à partir de 1879 au Calendrier et répertoire de l'agriculteur russe.
@@ -545,7 +559,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bataline est connu pour avoir publié de nombreuses monographies sur les plantes cultivables que l'on trouve dans l'Empire russe (panic, épeautre, riz, sarrasin, fèves, choux, etc.) et pour avoir été le premier à en publier un répertoire systématique avec une classification méthodique. Il étudie notamment des espèces russes de tabac, d'aulx et de lin.
 Il publie également une centaine d'articles à propos de la physiologie végétale selon la systématique des plantes et leur utilisation en agriculture. Il étudie en particulier différents lins, le sorgho et la moutarde noire pour leur adaptation en culture. Bataline ouvre un laboratoire de semences sur le modèle de celui du professeur Friedrich Nobbe (de) à Tharandt en Allemagne.
@@ -579,11 +595,51 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genres
-Ceratodiscus Batalin
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ceratodiscus Batalin
 Corallodiscus Batalin
-Roborowskia Batalin (nom invalidé des Corydalis)
-Espèces
+Roborowskia Batalin (nom invalidé des Corydalis)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alexandre_Bataline</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexandre_Bataline</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxons nouveaux décrits par Bataline</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Astragalus tanguticus Batalin
 Betula potaninii Batalin
 Ceratodiscus conchaefolius Batalin
@@ -665,31 +721,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Alexandre_Bataline</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alexandre_Bataline</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Parmi les plantes nommées en son honneur, on peut citer:
 Agropyron batalinii Roshev.
@@ -707,31 +765,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Alexandre_Bataline</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alexandre_Bataline</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(ru) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en russe intitulé « Баталин, Александр Фёдорович » (voir la liste des auteurs).</t>
         </is>
